--- a/client/RolePortray.xlsx
+++ b/client/RolePortray.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23535" windowHeight="12465"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="RolePortray" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>序号</t>
   </si>
@@ -276,16 +276,52 @@
   <si>
     <t>Assets/mnRes/Images/role/npc/scene_char_NPC_13.png</t>
   </si>
+  <si>
+    <t>NPC-男仆1</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/role/npc/scene_char_NPC_14.png</t>
+  </si>
+  <si>
+    <t>NPC-男仆2</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/role/npc/scene_char_NPC_15.png</t>
+  </si>
+  <si>
+    <t>NPC-男仆3</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/role/npc/scene_char_NPC_16.png</t>
+  </si>
+  <si>
+    <t>NPC-丫鬟1</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/role/npc/scene_char_NPC_17.png</t>
+  </si>
+  <si>
+    <t>NPC-丫鬟2</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/role/npc/scene_char_NPC_18.png</t>
+  </si>
+  <si>
+    <t>NPC-丫鬟3</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/role/npc/scene_char_NPC_19.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -310,6 +346,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -317,99 +421,56 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -421,35 +482,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -488,37 +524,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,13 +614,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,121 +692,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,9 +729,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,6 +749,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,18 +820,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,10 +832,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -808,133 +844,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1277,12 +1313,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -1293,7 +1329,7 @@
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:3">
+    <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1599,6 +1635,72 @@
       </c>
       <c r="C28" s="2" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/client/RolePortray.xlsx
+++ b/client/RolePortray.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="RolePortray" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>序号</t>
   </si>
@@ -312,24 +312,48 @@
   <si>
     <t>Assets/mnRes/Images/role/npc/scene_char_NPC_19.png</t>
   </si>
+  <si>
+    <t>关卡-家仆</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\level\char_level_enemy_1.png</t>
+  </si>
+  <si>
+    <t>关卡-婢女（凶巴巴）</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\level\char_level_enemy_2.png</t>
+  </si>
+  <si>
+    <t>关卡-婢女（常态）</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\level\char_level_enemy_3.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -346,38 +370,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,35 +442,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -428,6 +450,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -436,6 +466,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -443,47 +505,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,181 +548,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,10 +753,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -753,15 +784,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -777,26 +799,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,8 +828,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,10 +856,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -844,150 +868,156 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1047,6 +1077,7 @@
     <mruColors>
       <color rgb="0039998D"/>
       <color rgb="00489291"/>
+      <color rgb="00FF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1313,394 +1344,427 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="18" style="2" customWidth="1"/>
-    <col min="3" max="3" width="81.25" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="19.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="81.25" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:3">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:3">
+      <c r="A35" s="6">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:3">
+      <c r="A36" s="6">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:3">
+      <c r="A37" s="6">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/client/RolePortray.xlsx
+++ b/client/RolePortray.xlsx
@@ -313,19 +313,19 @@
     <t>Assets/mnRes/Images/role/npc/scene_char_NPC_19.png</t>
   </si>
   <si>
-    <t>关卡-家仆</t>
+    <t>关卡-家仆（Q版）</t>
   </si>
   <si>
     <t>Assets\mnRes\Images\role\level\char_level_enemy_1.png</t>
   </si>
   <si>
-    <t>关卡-婢女（凶巴巴）</t>
+    <t>关卡-婢女（凶巴巴Q版）</t>
   </si>
   <si>
     <t>Assets\mnRes\Images\role\level\char_level_enemy_2.png</t>
   </si>
   <si>
-    <t>关卡-婢女（常态）</t>
+    <t>关卡-婢女（Q版常态）</t>
   </si>
   <si>
     <t>Assets\mnRes\Images\role\level\char_level_enemy_3.png</t>
@@ -370,6 +370,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -378,6 +385,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -385,12 +400,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -399,7 +422,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,35 +443,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -450,17 +451,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,46 +499,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,19 +548,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,61 +704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,72 +716,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -711,18 +723,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,11 +751,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,17 +790,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,30 +848,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -856,10 +856,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -868,133 +868,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1348,8 +1348,8 @@
   <sheetPr/>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -1745,7 +1745,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:3">
+    <row r="36" s="1" customFormat="1" ht="33" spans="1:3">
       <c r="A36" s="6">
         <v>34</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:3">
+    <row r="37" s="1" customFormat="1" ht="33" spans="1:3">
       <c r="A37" s="6">
         <v>35</v>
       </c>

--- a/client/RolePortray.xlsx
+++ b/client/RolePortray.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="RolePortray" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>序号</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>立绘路径</t>
+  </si>
+  <si>
+    <t>人物头顶位置</t>
+  </si>
+  <si>
+    <t>镜头位置</t>
   </si>
   <si>
     <r>
@@ -121,6 +127,47 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>head_top</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">camera_pos </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>array</t>
+    </r>
+  </si>
+  <si>
     <t>征收丫鬟-7分身</t>
   </si>
   <si>
@@ -211,6 +258,9 @@
     <t>Assets/mnRes/Images/role/npc/scene_char_NPC_2.png</t>
   </si>
   <si>
+    <t>438,80,760,80</t>
+  </si>
+  <si>
     <t>NPC-妩媚姨娘</t>
   </si>
   <si>
@@ -263,6 +313,9 @@
   </si>
   <si>
     <t>Assets/mnRes/Images/role/npc/scene_char_NPC_11.png</t>
+  </si>
+  <si>
+    <t>350,75,600,75</t>
   </si>
   <si>
     <t>NPC-女主爷爷</t>
@@ -337,9 +390,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -369,6 +422,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -377,22 +431,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -400,7 +446,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,13 +507,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -429,31 +514,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,6 +544,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -475,44 +560,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
@@ -548,181 +601,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,17 +804,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,15 +851,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -823,13 +872,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,10 +909,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -868,137 +921,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1014,7 +1067,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1344,23 +1403,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="19.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="81.25" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="3"/>
+    <col min="4" max="4" width="15.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1370,401 +1431,623 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="17.25" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row r="2" ht="32.25" spans="1:5">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" ht="18" customHeight="1" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:5">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>39</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1158</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2">
+        <v>16</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2">
+        <v>19</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>52</v>
+      </c>
+      <c r="D23" s="2">
+        <v>21</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>54</v>
+      </c>
+      <c r="D24" s="2">
+        <v>22</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>56</v>
+      </c>
+      <c r="D25" s="2">
+        <v>23</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>58</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1020</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>61</v>
+      </c>
+      <c r="D27" s="2">
+        <v>25</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>63</v>
+      </c>
+      <c r="D28" s="2">
+        <v>26</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>65</v>
+      </c>
+      <c r="D29" s="2">
+        <v>27</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>67</v>
+      </c>
+      <c r="D30" s="2">
+        <v>28</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>69</v>
+      </c>
+      <c r="D31" s="2">
+        <v>29</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D32" s="2">
+        <v>30</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>73</v>
+      </c>
+      <c r="D33" s="2">
+        <v>31</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:3">
-      <c r="A35" s="6">
+        <v>75</v>
+      </c>
+      <c r="D34" s="2">
+        <v>32</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:5">
+      <c r="A35" s="8">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="33" spans="1:3">
-      <c r="A36" s="6">
+        <v>77</v>
+      </c>
+      <c r="D35" s="8">
+        <v>33</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="33" spans="1:5">
+      <c r="A36" s="8">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="33" spans="1:3">
-      <c r="A37" s="6">
+        <v>79</v>
+      </c>
+      <c r="D36" s="8">
+        <v>34</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="33" spans="1:5">
+      <c r="A37" s="8">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
+      </c>
+      <c r="D37" s="8">
+        <v>35</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/client/RolePortray.xlsx
+++ b/client/RolePortray.xlsx
@@ -28,7 +28,19 @@
     <t>人物头顶位置</t>
   </si>
   <si>
-    <t>镜头位置</t>
+    <r>
+      <t xml:space="preserve">镜头位置
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中近景底部位置及位置画面比</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1408,7 +1420,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1421,7 +1433,7 @@
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="48.75" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
